--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/42_K.Maraş_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/42_K.Maraş_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90CF4FAC-A092-4B98-9DCD-0267434C5A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CEB47B4-AF81-43C2-8A89-A86B3B8EA86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" xr2:uid="{FEF7A801-C705-45ED-A749-842D97047A61}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" xr2:uid="{A44F0302-53D7-4171-8D81-2806C5E5634A}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -925,10 +925,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{F0AF4113-8149-4565-8C66-389ED444F5E5}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="3" xr:uid="{C48C5E5D-300B-42DD-93DE-6BAC6A01F275}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="4" xr:uid="{61FD5B0A-AF47-4BD2-89FD-DB60DD0B85ED}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="5" xr:uid="{550EEE86-8DDE-49EA-915C-7D2942908330}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{B775E195-F1CA-430D-AC41-9FFC3E516ED6}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="3" xr:uid="{8006B578-D1BF-431E-A0FB-E6EEC51554A4}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="4" xr:uid="{793C2537-CE89-4E2B-A3C7-985A6A96B8EA}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="5" xr:uid="{7529A7C4-24B1-4E7D-8024-4875AA90A5D6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1298,7 +1298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C239397-4E9D-4007-B5FE-187B5BC2844E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1730EC31-77A6-4F72-A24E-966A93A0DA69}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2577,18 +2577,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C8563435-5920-4E45-A861-1B05C40B8B23}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{958C87D7-FEB9-4C1C-B756-C703F256CC4A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7084E492-F802-48C7-B683-D1BC110547AF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3E9157D6-65C8-495E-9423-31DF4DE40312}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2488005A-6EC1-4FCA-862D-7BDD3BC693AE}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{538780C4-B7B9-452B-B313-CCE97C958427}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C202BBB1-A1AF-4FC6-8951-D9C87886511A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3516028B-68DA-48F3-930B-16ACE996F56D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A8CC6474-7629-41B7-937F-2322C348DF7E}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2EC49644-EEB6-4C79-AA67-D0B21E1E6A91}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7DD53F2C-30B1-44C3-A51F-BF512A2AF6AB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5F16F265-4AF1-48D1-A4E2-EBEE49F5A83B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8DF0644C-0277-4210-B0B5-D2C535A34A86}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1162073C-BD18-416E-95B9-B84E734D6D86}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E8623D7B-E8E0-4E9E-9967-42A8DD437AF9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{71D8FC61-CC23-49E8-AE12-A7AF487C95CC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B12D1273-CD1A-4284-BA53-536CDFAC61FE}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D676F519-D6B9-4227-A75E-3058547F10A1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3DB80751-3D7E-4D14-8CF9-6170F75B3C93}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3FD92745-0906-4D16-A209-A198F4569C76}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{09D08999-9205-4DE2-A91A-DC70FEAEDA1F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B831B855-1668-4EF1-92BC-96CB4D5DFCBD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{07DD76F0-5A70-443F-AA17-C882DB93BF23}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{21165566-4407-440A-A6ED-4F6BD9A21239}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2601,7 +2601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3F1E4A-AE2D-4B55-87B6-F7E2D9C66ABC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122AFF26-F2F9-401B-9362-A0F09D915D47}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -3867,18 +3867,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{99D85B9F-2361-461E-A056-3C0A5E276C57}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7BDBA640-2009-40CC-92F6-1E037E9565E4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9606E3F1-3A1F-4290-8B3B-B041EB6F96B7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F468767B-1F0D-4A2C-AD05-63282E9AF521}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{33EE7625-67A8-4D11-A2EF-E7D792A20FAB}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BA154F46-376A-470E-9EA1-C1D5F47FD5F4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{226A5E49-CEC2-4C5C-80A9-891E1E1ACD96}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A04A6FDB-2852-494D-9C60-ABFCB3DF86D9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{517B863B-6262-4AC0-9EB8-15D3B5ABD06F}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{27BA8DD5-0C61-4BB3-95AC-1819DD75E94E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{501AFDAB-DFE0-42A7-BE98-94EE790ADEAB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FD4B7D4A-8327-41CE-A8D6-181341381CFD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F65D8D29-FFDE-4644-BA9A-7AA6366B31F3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1D676215-86AC-4AA2-9490-15119FC007D2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AEE628B2-21AA-4A7D-B980-DCCC202EECB8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D5E049C8-BE3B-401D-9BE0-2FB6CA0DF56B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C5B589BE-63F2-4524-9F15-AB89CE55F1AB}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{ED182498-3ACA-494A-B023-78942850331D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7373B25A-55FC-46D8-B476-7BB36A2DC73F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B041FEF1-95AF-419E-8AD1-8E4A1A6AB394}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D12D03C1-DDF6-4B80-8E1B-DAD75C7D3862}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0BA8B1FB-4ED5-4359-B574-5DD7D8F96598}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3743E873-D814-4556-944A-3C640029DDAE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CCDD95EA-528C-496A-8607-02C4CD282441}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3891,7 +3891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22970B18-25BF-462A-A878-15FD4C0B32A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0729BA-9D96-4815-8784-91DE2D81B287}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -5149,18 +5149,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6F6CED37-1650-4504-9515-667AE21ACBBE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5466FEAE-86C1-4D01-A949-AAB2410AF750}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A640FC9C-6957-4C45-BEA8-9EC4BA9AAD13}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EFE5CFE6-6D87-49AE-AFBF-44150A9577C9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ADD3BE0F-DC3F-4900-AE1A-084FED46058D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5215DE62-5718-4434-9D99-AF591DD2FCE5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{34D29893-A914-4046-8059-BEB0CFED5FDA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F27CAB90-BDDB-45B0-85EC-B6261B028EFE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{73984CBB-B13A-4F99-9A97-58FADB699B74}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DD5D1D02-12DA-4F40-928D-76F734C60284}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5D85D555-0D79-4514-802C-BD8EC9A69F45}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{90EAC0EC-ACF7-48B9-AE5F-0C22C06669B8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FCD981CE-12FA-467B-8AE0-07FA84DBCED6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{39C77625-A58E-4B7E-BCD5-4C87439DF07F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1445A9ED-4D5D-466E-9EE7-23BB9BA0A9BD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C6A3BED9-416B-467B-9618-19B3AD85DC39}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F7DABFDE-E664-4DC1-9735-065CCF775533}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A6130442-B63C-4069-B614-5A98AEAF4590}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6FB4A193-1559-491F-BDC7-E9FF9BF797FC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5CA230A1-DB1C-47FF-BA66-3309B6EB7FA4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0418FDE8-430F-4C3F-AA69-3E4CF3D69B4C}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{10AD80D3-BFF7-4E76-A126-AFED73CDC71D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AFEC78A5-D13A-4B21-A229-73A6C1ECB64C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A3191ED4-E837-421F-BBFF-A8BAAFFE7CDC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5173,7 +5173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8358548-4405-4097-9472-E7FF87C7E42D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4165FF76-77AB-48C7-9B9A-038AC71BC437}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6427,18 +6427,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{67008827-952C-4376-BC31-170CD27978D2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BDBC47B9-95EA-44FE-B21C-8C2A7715F355}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{68E239B0-FB1E-426D-9C87-43F52E7D3944}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{87EBB653-3C33-408D-A61D-C7711DF60E82}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B9EC018D-3651-4A8F-B564-12A2BF7A9496}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{11F6FDF5-2B1B-4913-A570-261A737BE0CC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8AFF6FEB-F1C4-40A9-B90D-740AABA81F9C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{553F3885-2D2C-4CE2-8447-5EF70DF17C3D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5CEE97A5-4BA5-4A41-B30C-85347DCA20E5}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A6A2A4CC-FBEE-4652-9EFA-A48D4E508C3B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DB45F2B5-B177-483A-931A-E5DEC661AD63}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{81EE2920-6E3A-438F-BF6C-B681062B53C3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4FC26732-82C7-4B2A-9DD2-9F57C9A8FA72}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A827AABC-D873-433D-8382-1C964810A45D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1AC8D8CA-3DB2-4F4A-BEA4-C0F39336B8DF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{579E7ACE-3830-4494-9BA8-F81CC33EB9F9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0D93C274-F4EE-48EC-9CC8-201AA1C8C3FC}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BCE1156E-58FD-4453-94A1-6A8E24991554}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1EECEEEC-3CDB-473D-8231-F4E89FF3F4E6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CC8438DC-4643-4B21-A28B-CCD90532D8A7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D012A2C2-221C-4A7E-81D3-A38A76F429BB}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{01CD5672-E0CE-4FBC-897E-64F232705CA8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D96C7B14-20B3-4B87-933C-7544DF7E1CAF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4EC71F39-2F46-4935-B575-019D98ED2189}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6451,7 +6451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63167D45-70B4-446B-84FD-ADBF9AB94E76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705441A8-84CD-4582-95D3-923E9E894CF5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7732,18 +7732,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6AC8CE58-4888-42E4-88BC-350B1E158356}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6ABEBFBB-C7FA-4AED-A128-8E67D171434E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6C41990E-DC12-4DDB-A782-7FC03D6BD89C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EC9E9A99-F3AB-4E7E-A9B6-8F35CEF8D5E9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3FF7FC99-5891-4B5C-90E1-D65F95C1D51A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B9B76A5F-DB65-449A-BBFA-ACD864EA7278}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B3AE63D1-E510-4F7B-92AE-78CBB604B6C5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FB710EA6-3425-4AAD-AEA7-B279CCC74425}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C484A254-5272-4677-843C-987E5CCE601D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CB51F75C-22C0-4A98-8537-94F975A50CED}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1D55AB0A-E653-491F-AA8A-BE72CF472628}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{487FD234-CD63-458E-B5AC-0D7238912BF4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A60B1A42-30AD-4594-BD0D-0DC1C198E1F5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1A2080DB-D177-448D-BAD4-0C53F441FCE0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0CEB2E7D-7ABC-47DC-96F7-3504F4E50C7A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{52369701-B5C2-464C-815A-C273D7C61838}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5B6D280E-21AE-49A9-B302-B4BB1C9048BA}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{51AE8836-7E09-41D8-8D25-BADA30AD170C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B5C995A8-01A9-4615-96E0-28817374908C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0409991B-C9BB-46D2-A32F-76F5CF58BDF0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F5A57E3C-F4DC-4404-B040-FC20E8DD541F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3AE66ED0-9124-4F8C-B971-79B068BCCAA6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8662F0D8-627E-4E9B-AC76-A7EAA63D3AF4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C42632D2-3FD4-4EEC-88EF-492AF2ACA270}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7756,7 +7756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EDAC66-9818-4B6E-A59E-128EB8E27DE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB115F1-9AED-4215-8BB0-2B2919532855}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9037,18 +9037,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{86E94674-B6DE-46E6-B2B0-34B47300237E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6691CCC7-FBDA-45C6-95F9-A8F03F684F09}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{33D28787-9BD1-4A6D-9D11-1C24EDDAEBF2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{02C52C3D-1066-462E-B847-7FF29CBD85AC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F2EB1457-0372-4988-AFC0-F599B9D70838}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8E327E6E-458C-434B-A7B9-BB9DB6604509}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1F45DED9-A9B5-40BB-8146-249ED55FB044}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9FBE46CF-C247-451A-AAE2-7B9B67C2A853}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{36570D42-7F9B-4263-BCC0-31948D1BF03D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{24DCA88B-D8A3-48D9-9E6F-E407F632FE96}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8CF63159-8F3A-47B9-88C2-0115C17C71CF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{85737499-D030-4A76-9976-77E4A729B79B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8B6A9E03-6747-425D-86B8-CAEE1D295C43}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6B1784DA-13F6-44EB-81FF-307379505958}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6FDD9744-1551-4F13-B34A-8E24FE1181F0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{464548B8-C122-434A-8C38-D3B9A10DDAE7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5B971A1E-DDE8-40E6-8E58-CED079195937}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F932782E-A870-4827-B1D0-9E4034AC6809}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{07C28831-54E3-4490-BF19-65DF8D265AE5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D278B8C8-B3FD-423E-87E3-66AB9D17DADA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C00366E6-111C-4B86-B299-8DEB866CFCA0}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{56572CA1-3687-4770-8CB2-BF9CBA72BC27}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E20E3A12-5391-43E3-9F39-ECC4919453D0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{53A1BD93-DB70-426D-9CCE-28C7EB53711F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9061,7 +9061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18CF4B5-A566-4711-BB78-401A487790FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E63B24-5923-4039-946F-078EBD3D062C}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -10343,18 +10343,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B975296A-64A2-4842-BEA0-69F1D8526A36}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3B44892A-E18C-4650-BD7B-ADF97AD33BFB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5D3B0478-DE39-42EF-B5D5-C66BDF01766B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ED08D3FD-4E8D-45CC-BE38-82775E950B20}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D758BC31-6C12-47C8-B958-3FC1B2FEAF37}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F28C04EC-5FF1-44AA-A784-64C9410242C3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6AE8CAB2-BBB9-4EAE-9FD5-484B483F7E59}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{133B008B-A177-4443-A565-34DD00B1994A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{93D2535F-38B8-4A79-8027-B959EC385881}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EED3E6A4-EB54-4EA3-8B12-7B086C047A09}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E117AD9F-1913-41BC-A940-5843DBAD42E1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DC0BE0D7-1C95-40DD-9421-06137439874B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{312893F9-C2A8-420B-9CE0-87AC6924B361}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{18C16EBB-BCEA-4FB5-A464-58FC21102408}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5A0EF9FB-76F9-48EB-8A21-FEF2CDF31C34}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{459C0901-2731-4975-AE7E-FC573519F06D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D29ECB26-24C4-49C4-B58E-746C27C25828}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9C15E62C-A53F-4DC2-986D-127C2F753AC3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{040AF971-6D91-4E8A-B88E-18E10DF69F72}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{219DC2B0-3184-40D3-8DF5-0DB625D19421}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{05DB665A-157C-4844-A7E9-C7AC0B5B20C2}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{30DDE099-2807-47BD-BC22-BC455D2ABC07}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EFCD237C-7A9D-4332-9F0A-8A74475A9B4E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F4934CE9-A7FA-4B5E-9C48-93D8DA5C5CB1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10367,7 +10367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3344AB9C-AB5C-444B-811F-FE2E59C2AD37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B68F99E1-2C27-440A-8508-49B51953F1E8}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -11649,18 +11649,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{46342D2D-97AF-4D54-83DB-7A44AFC40FBC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{99E1287E-3FFE-42EF-A96C-5D21F25908D9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D8569967-2EC6-408E-BCB5-5A96DEB111D4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{15106BA0-4F8B-4A0C-88A2-AC9CE0D61F69}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6B323214-A04B-401D-B3A5-45332BE8E063}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{53ADBE2C-47D3-40A2-98AD-236DD1D2C253}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4117C4A5-4FEC-4D9F-8C6A-9211AE42828B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{610F3CA8-04A2-43E8-AEF6-0DB8401B26A8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{21B4BF9B-918D-44A9-AA31-B3AF3DA69040}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B620F8B2-ACB3-45B5-9838-F8484AADEBEC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{10A268B6-3976-4039-B713-366CB526E7C5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8E74A091-8CFB-4C61-B823-8884705F7A0C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{38AC8267-209D-4F6B-82F2-7DA0FD82288B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A43BF87F-98BB-4404-B81A-AB332AA387E0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{476D66BE-A77F-46C2-B09C-4D4661C6CC8F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E0E096EE-B622-4B75-BFFB-5AC264E38936}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D5EAC979-771D-4103-8249-DBC8F2A6C857}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9E85B89E-7D66-4041-9527-275A8B134477}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BD54AB74-2874-400D-8ADF-FF24F11C24AF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9B48619B-03C7-40AB-AF02-2DADBF230BE7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9FDB56CB-8C40-43AA-AAFE-7AA9A1AE020D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E4265F11-0F40-4B12-8824-4B562615BBD6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CF887E6A-EADE-40EE-9E55-0155EE289FD8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B982740E-9CE8-48A5-BB31-35ACBA838B95}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11673,7 +11673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C46A96-C575-4396-8679-39AFBC72C7B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1208350-E848-4DFC-A3F5-73241E160F8D}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -12947,18 +12947,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A1433E18-08D3-48E1-B3A9-973F2D447CAB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B15B6B43-C430-401A-8070-7F7E0071BC75}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E346C4BF-C384-4E43-A2DA-55A0FCAE1B4B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{60F2C715-6992-4D7B-A5A0-92C0AF34D931}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E72CE7BC-506F-4000-90DE-60FC01C5C3B3}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1F1CD74B-A555-46F3-9607-674AA0B3408D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{525868DF-98BD-4F5E-81A4-3C35BC759234}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{730E7253-8313-4EEA-A740-1134D18C8578}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D1999F2A-4B65-409B-9701-F1A4DEE731DE}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2C01D9E3-A1EA-4271-8DA2-1DBDD1D5C736}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FFB0CA0D-35F0-4AD5-9297-924DEF8B2CBB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CE07441F-7563-4373-BC34-4EB7F44E1D76}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8B67BA49-ED07-4945-87FF-1B043B7DE11B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D96B916F-E050-4EE1-AAE6-7C89BA2B8268}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6C552ACB-7F67-45FE-A0E5-6D4EC9571C06}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C5542257-ED40-4F74-8477-2CBA0E96D425}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3113DE5D-3955-4D4D-AA41-43BC7ECAD09B}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{26772EDB-D1F1-4858-B344-641A8512ED74}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B1AAE187-85EA-4720-BAB3-DA534EA137F8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{461FF4FD-1E9F-46B8-9E9A-65CF3ABD1E7B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F6A7F154-8E9A-47D5-B0D5-47270CF25BD3}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1300F7D3-66C2-4DB6-AA69-32F6BC94DB50}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5F1696BB-9570-4FE9-BC13-AE8BD5625F5B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EE3B1C03-948F-4033-9771-EC5BB883C3BA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12971,7 +12971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CBC75E-45B0-4CC3-B029-CEE4B2D1689E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD76494-6E87-4D9C-929D-2D3F4CF90B40}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14239,18 +14239,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AA29866A-6428-43FE-B1AB-0B14D3DC2253}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4D62EE75-5A19-4868-AD22-B99AFF079645}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E257899B-0977-4350-848E-4B62E313B4A7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{04643B53-9587-42D2-8953-012CE3381161}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9369EA39-6577-4BCA-BB8A-04C9AC35F4AA}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{141C2B38-0D13-4850-9532-9232A6B5445F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AB0C09AE-59C3-453A-BFD1-E6B442D2BFA7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C613CDAC-ECFC-4492-BB0E-44A9D81B697A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0370339A-9E47-4BBE-9C75-5295919D5AC7}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{22FD60AF-C18C-49E2-9264-1E6DFE789108}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C839387C-EC3B-4DED-B761-00FF2E008E21}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{74929D7D-104D-4B38-B8F7-06E2D7D1295D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F86F6744-EF84-4462-94D1-BD2FFDAD7615}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E944ED81-E0A3-4B87-B9DA-E4789D8EA2ED}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BA17CFD9-29ED-4D8F-B13E-101624DE9DB5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E3A6928D-CA1F-43DE-9883-CD4DA8872139}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B8C9A11E-1D5C-4B91-AF9F-8974CD7866EE}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F158D6EF-1093-4483-B423-B3310A87ED81}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4180C581-FCEF-4221-A280-604044945A23}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FF6D1282-C086-44FA-A952-761A6BD100FA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E65A6C29-CDE6-4A04-8A88-B126F36F527C}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2A6BF54C-76A9-42F0-9833-E50763B98848}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{51FF2A11-3EB5-4EB8-BA46-2E7495CC3A21}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B075F908-2CD4-47E9-8B95-B072DE82B139}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14263,7 +14263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599B3F7F-62EC-42E3-B6F3-47EF0D4F629E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0731A4FE-3593-4F5D-B793-CBF301BDE9E0}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15529,18 +15529,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{26139986-4D83-4DED-859B-725CC5DC3D45}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{26AA1E3A-EF57-4DF6-89DD-213092ACAE38}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{04E10363-8606-4312-B88B-D93EB4A80329}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B917B8F8-EFE1-4881-99DF-5702400C905C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{78AEE26E-3E48-4644-9F96-09CA7FC16A90}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0982FB44-C715-45F0-A7A8-BFA3DE97C726}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{365E3271-0F15-4844-98F8-B05B20539FFB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B43E3BFB-2B4E-4B19-92B1-4B74186F5E00}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{27966CB0-7926-4B6C-AA5D-73E0A3F42EBA}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3CFCB40A-098D-46F6-8512-25B99CD21241}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{287071CA-EC82-43A5-9F1D-33BCF9DB5B55}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{59D8DF35-6653-4885-8AEB-41DF7E34DDC4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4FD993A0-2B5D-4E39-8724-03266450D1E5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4B3A6EDF-5127-41DE-8168-875B29548306}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{682D4DAE-4241-4F07-8F03-DF29EE6A1A56}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A40C0AAA-976B-4A00-BC08-9C227FCFEE8C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8654AE73-ED4D-4D91-9FFE-D4AB1A30F568}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7C610D76-06B0-4FAA-B872-FCAF81A78F87}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{32BDC6D3-3CBE-4FE8-8646-51080B61D6CF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D9B432A6-CFC1-4D2C-99C1-40C0A8389130}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6E4807AB-7302-4C25-B658-97A85F4772C1}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{55600DE4-089D-481C-868C-FF4256C77C16}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6491345B-1A51-4EA9-A6E7-F6A6C3B7EB7C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D66D65D4-1FB7-4B48-B903-29AAC1C93296}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15553,7 +15553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD233BB-E6B9-4889-A493-E2A8B4788BB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD806A5-A1F6-4A61-BB17-7C8BA6E849DF}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -16819,18 +16819,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6051ACD8-6BB1-45D8-A166-2F25B445C274}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7E9B5DAF-ABFE-4C29-9C97-001606932384}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8C48893E-2843-46EE-818C-FA0155B87D8B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0ECF5337-4247-4EF2-BFDF-0361697347E3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7126DAEF-63F7-4168-A1E1-979231E71832}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F4B885FF-C06A-442B-988C-26E3F43998AB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EE3F5AF0-839D-48D1-9EF6-E92A5C314812}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{661C54E2-9681-4E67-9A1B-80A618FF597B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{20F56B27-A26B-4A3E-8D9B-44A151E7807D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E9CD5B98-FCD1-40D2-A285-B804ED53B6AA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{669F5960-9A05-483F-9334-BA07969C79D3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2B9D2FF6-E776-4C0B-830B-80171DF1524F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{913330AE-FD7C-4763-9A93-0FEF3F555303}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3C9D45BA-6E9D-408E-AB67-F8D6B9A97980}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CC469B41-92A3-4C53-B0DD-28094AB69E26}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FBE356C0-BAD6-44FD-B165-65446B452769}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{54A8F23A-742A-4117-955F-4977459801AF}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{86159DC1-0A0A-4D57-91F2-862B4DFF33DD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{386C9D86-AD1B-4119-AA18-CBFDBF346A07}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DC888F2B-845B-4B33-90D0-26A67D23111B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D99BEDA6-224B-4BD9-A73E-5437B056DFDE}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E16B050D-C5CA-47E4-BAAA-339636F06D28}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1FAA76B9-296A-40FF-9447-46912A092CE9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3FEA3C31-C9CF-4628-8709-00C4B067E3A3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
